--- a/Descriptive Statistics/P-values and t-values/regression_results_corrected_values.xlsx
+++ b/Descriptive Statistics/P-values and t-values/regression_results_corrected_values.xlsx
@@ -597,94 +597,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.615</v>
+        <v>-1.265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.615</v>
+        <v>0.576</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.042</v>
+        <v>-0.619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.526</v>
+        <v>0.49</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.176</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.472</v>
+        <v>0.412</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.735</v>
+        <v>-0.576</v>
       </c>
       <c r="I2" t="n">
-        <v>0.399</v>
+        <v>0.374</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.283</v>
+        <v>-0.412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.186</v>
+        <v>0.204</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.626016260162602</v>
+        <v>-2.196180555555555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009093029904323945</v>
+        <v>0.02893268242051756</v>
       </c>
       <c r="N2" t="n">
-        <v>0.995453485047838</v>
+        <v>0.9855336587897412</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004546514952161972</v>
+        <v>0.01446634121025878</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.980988593155893</v>
+        <v>-1.263265306122449</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04852734598270082</v>
+        <v>0.207587648017392</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9757363270086497</v>
+        <v>0.896206175991304</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02426367299135041</v>
+        <v>0.103793824008696</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.491525423728814</v>
+        <v>-2.286407766990291</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01327267628668719</v>
+        <v>0.02300783378337101</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9933636618566564</v>
+        <v>0.9884960831083145</v>
       </c>
       <c r="W2" t="n">
-        <v>0.006636338143343594</v>
+        <v>0.01150391689168551</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.842105263157895</v>
+        <v>-1.540106951871658</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06647015780015651</v>
+        <v>0.1247097629387778</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9667649210999217</v>
+        <v>0.9376451185306111</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03323507890007826</v>
+        <v>0.06235488146938892</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.521505376344086</v>
+        <v>-2.019607843137255</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1292115064073062</v>
+        <v>0.04441556565556968</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9353942467963469</v>
+        <v>0.9777922171722151</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06460575320365311</v>
+        <v>0.02220778282778484</v>
       </c>
     </row>
     <row r="3">
@@ -694,94 +694,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.212</v>
+        <v>-0.346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.882</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.345</v>
+        <v>-0.446</v>
       </c>
       <c r="E3" t="n">
-        <v>0.771</v>
+        <v>0.786</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.233</v>
+        <v>-0.493</v>
       </c>
       <c r="G3" t="n">
-        <v>0.619</v>
+        <v>0.54</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.382</v>
+        <v>-0.425</v>
       </c>
       <c r="I3" t="n">
-        <v>0.465</v>
+        <v>0.373</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.288</v>
+        <v>-0.232</v>
       </c>
       <c r="K3" t="n">
-        <v>0.287</v>
+        <v>0.298</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2403628117913832</v>
+        <v>-0.4240196078431372</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8102170916821173</v>
+        <v>0.6718903910650182</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5948914541589414</v>
+        <v>0.6640548044674909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4051085458410587</v>
+        <v>0.3359451955325091</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4474708171206225</v>
+        <v>-0.5674300254452926</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6548657842126621</v>
+        <v>0.5708952940390009</v>
       </c>
       <c r="R3" t="n">
-        <v>0.672567107893669</v>
+        <v>0.7145523529804996</v>
       </c>
       <c r="S3" t="n">
-        <v>0.327432892106331</v>
+        <v>0.2854476470195004</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.3764135702746365</v>
+        <v>-0.9129629629629629</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7068818854860071</v>
+        <v>0.3620795280117914</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6465590572569965</v>
+        <v>0.8189602359941043</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3534409427430035</v>
+        <v>0.1810397640058957</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.821505376344086</v>
+        <v>-1.13941018766756</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4120264049493434</v>
+        <v>0.2555456985286438</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7939867975253283</v>
+        <v>0.8722271507356781</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2060132024746717</v>
+        <v>0.1277728492643219</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.003484320557491</v>
+        <v>-0.778523489932886</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3164552403395192</v>
+        <v>0.4369447320539621</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8417723798302403</v>
+        <v>0.7815276339730189</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1582276201697596</v>
+        <v>0.2184723660269811</v>
       </c>
     </row>
     <row r="4">
@@ -791,94 +791,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.675</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.323</v>
+        <v>0.336</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.064</v>
+        <v>-0.396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.267</v>
+        <v>0.283</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.035</v>
+        <v>-0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.098</v>
+        <v>-0.112</v>
       </c>
       <c r="I4" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.101</v>
+        <v>-0.207</v>
       </c>
       <c r="K4" t="n">
-        <v>0.101</v>
+        <v>0.108</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.089783281733746</v>
+        <v>-2.794642857142857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03749941136810432</v>
+        <v>0.005569595445654649</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9812502943159479</v>
+        <v>0.9972152022771726</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01874970568405216</v>
+        <v>0.002784797722827324</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2397003745318352</v>
+        <v>-1.399293286219081</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8107301441823693</v>
+        <v>0.1628770962920548</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5946349279088153</v>
+        <v>0.9185614518539725</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4053650720911847</v>
+        <v>0.0814385481460274</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.2570093457943926</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8677472926731925</v>
+        <v>0.7973680299119619</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5661263536634038</v>
+        <v>0.6013159850440191</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4338736463365963</v>
+        <v>0.3986840149559809</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.5764705882352941</v>
+        <v>-0.6222222222222222</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5647397205927954</v>
+        <v>0.5343227994321917</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7176301397036022</v>
+        <v>0.7328386002839041</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2823698602963977</v>
+        <v>0.2671613997160959</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3181356414721688</v>
+        <v>0.05633973628907953</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8409321792639156</v>
+        <v>0.9718301318554603</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1590678207360844</v>
+        <v>0.02816986814453977</v>
       </c>
     </row>
     <row r="5">
@@ -888,94 +888,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.476</v>
+        <v>0.545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.423</v>
+        <v>0.427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.476</v>
+        <v>0.182</v>
       </c>
       <c r="E5" t="n">
-        <v>0.325</v>
+        <v>0.31</v>
       </c>
       <c r="F5" t="n">
-        <v>0.253</v>
+        <v>0.121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.286</v>
+        <v>0.273</v>
       </c>
       <c r="H5" t="n">
-        <v>0.128</v>
+        <v>-0.023</v>
       </c>
       <c r="I5" t="n">
-        <v>0.213</v>
+        <v>0.231</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.104</v>
+        <v>0.027</v>
       </c>
       <c r="K5" t="n">
-        <v>0.139</v>
+        <v>0.153</v>
       </c>
       <c r="L5" t="n">
-        <v>1.125295508274232</v>
+        <v>1.276346604215457</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2613847667829459</v>
+        <v>0.2029338567325882</v>
       </c>
       <c r="N5" t="n">
-        <v>0.130692383391473</v>
+        <v>0.1014669283662941</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8693076166085271</v>
+        <v>0.898533071633706</v>
       </c>
       <c r="P5" t="n">
-        <v>1.464615384615384</v>
+        <v>0.5870967741935483</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1440980103679665</v>
+        <v>0.5576311364131936</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07204900518398323</v>
+        <v>0.2788155682065968</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9279509948160168</v>
+        <v>0.7211844317934031</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8846153846153847</v>
+        <v>0.4432234432234432</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3770894456213014</v>
+        <v>0.6579603675991281</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1885447228106507</v>
+        <v>0.3289801837995641</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8114552771893493</v>
+        <v>0.6710198162004359</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6009389671361502</v>
+        <v>-0.09956709956709955</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5483452281796066</v>
+        <v>0.9207621749526955</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2741726140898033</v>
+        <v>0.5396189125236523</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7258273859101967</v>
+        <v>0.4603810874763478</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.7482014388489208</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4549387928397525</v>
+        <v>0.8600570382023952</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7725306035801238</v>
+        <v>0.4300285191011976</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2274693964198762</v>
+        <v>0.5699714808988025</v>
       </c>
     </row>
     <row r="6">
@@ -985,94 +985,94 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.003</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.017</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.017</v>
+        <v>0.003</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.103448275862069</v>
+        <v>-1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9176779687424037</v>
+        <v>0.3182091907828259</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4588389843712019</v>
+        <v>0.840895404608587</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5411610156287981</v>
+        <v>0.1591045953914129</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7777777777777778</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4373275979433922</v>
+        <v>0.09674457829606251</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2186637989716961</v>
+        <v>0.04837228914803125</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7813362010283039</v>
+        <v>0.9516277108519687</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2945833808461786</v>
+        <v>0.1107723574251486</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1472916904230893</v>
+        <v>0.05538617871257432</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8527083095769107</v>
+        <v>0.9446138212874257</v>
       </c>
       <c r="X6" t="n">
         <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3181356414721688</v>
+        <v>0.3182091907828259</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1590678207360844</v>
+        <v>0.1591045953914129</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8409321792639156</v>
+        <v>0.840895404608587</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4844827136731784</v>
+        <v>0.6174838393680466</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2422413568365892</v>
+        <v>0.3087419196840233</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7577586431634108</v>
+        <v>0.6912580803159767</v>
       </c>
     </row>
     <row r="7">
@@ -1082,94 +1082,94 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.489</v>
+        <v>0.178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.404</v>
+        <v>0.401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.491</v>
+        <v>0.34</v>
       </c>
       <c r="E7" t="n">
-        <v>0.337</v>
+        <v>0.345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.283</v>
+        <v>0.277</v>
       </c>
       <c r="H7" t="n">
-        <v>0.437</v>
+        <v>0.398</v>
       </c>
       <c r="I7" t="n">
-        <v>0.216</v>
+        <v>0.223</v>
       </c>
       <c r="J7" t="n">
-        <v>0.195</v>
+        <v>0.121</v>
       </c>
       <c r="K7" t="n">
-        <v>0.119</v>
+        <v>0.123</v>
       </c>
       <c r="L7" t="n">
-        <v>1.21039603960396</v>
+        <v>0.4438902743142144</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2271024774771944</v>
+        <v>0.6574787670198513</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1135512387385972</v>
+        <v>0.3287393835099257</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8864487612614027</v>
+        <v>0.6712606164900743</v>
       </c>
       <c r="P7" t="n">
-        <v>1.456973293768546</v>
+        <v>0.9855072463768118</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1461945907461101</v>
+        <v>0.325260547850393</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07309729537305504</v>
+        <v>0.1626302739251965</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9269027046269449</v>
+        <v>0.8373697260748034</v>
       </c>
       <c r="T7" t="n">
-        <v>1.996466431095406</v>
+        <v>2.321299638989169</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04680824952733029</v>
+        <v>0.02101820448258551</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02340412476366514</v>
+        <v>0.01050910224129275</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9765958752363348</v>
+        <v>0.9894908977587072</v>
       </c>
       <c r="X7" t="n">
-        <v>2.023148148148148</v>
+        <v>1.7847533632287</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04396567789088401</v>
+        <v>0.07542815575720416</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.021982838945442</v>
+        <v>0.03771407787860208</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9780171610545579</v>
+        <v>0.9622859221213979</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.638655462184874</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1023583526569718</v>
+        <v>0.326127410081988</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05117917632848592</v>
+        <v>0.163063705040994</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9488208236715141</v>
+        <v>0.836936294959006</v>
       </c>
     </row>
     <row r="8">
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.491</v>
+        <v>0.242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42</v>
+        <v>0.389</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -1193,16 +1193,16 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.169047619047619</v>
+        <v>0.6221079691516709</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2433346470874887</v>
+        <v>0.5343978056207812</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1216673235437443</v>
+        <v>0.2671989028103906</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8783326764562557</v>
+        <v>0.7328010971896094</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1230,10 +1230,10 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0.399</v>
+        <v>0.123</v>
       </c>
       <c r="E9" t="n">
-        <v>0.381</v>
+        <v>0.36</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1246,16 +1246,16 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>1.047244094488189</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2958501295868194</v>
+        <v>0.7328685134833199</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1479250647934097</v>
+        <v>0.36643425674166</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8520749352065903</v>
+        <v>0.6335657432583399</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1281,10 +1281,10 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.336</v>
+        <v>0.172</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27</v>
+        <v>0.253</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1299,16 +1299,16 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>1.244444444444444</v>
+        <v>0.6798418972332015</v>
       </c>
       <c r="U10" t="n">
-        <v>0.214330559737033</v>
+        <v>0.4971891973567055</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1071652798685165</v>
+        <v>0.2485945986783528</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8928347201314835</v>
+        <v>0.7514054013216472</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.07099999999999999</v>
+        <v>-0.307</v>
       </c>
       <c r="I11" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1352,16 +1352,16 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>0.3380952380952381</v>
+        <v>-1.434579439252337</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7355335394535667</v>
+        <v>0.1525685041139458</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3677667697267833</v>
+        <v>0.9237157479430271</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6322332302732168</v>
+        <v>0.07628425205697292</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1383,10 +1383,10 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-0.277</v>
+        <v>-0.194</v>
       </c>
       <c r="K12" t="n">
-        <v>0.133</v>
+        <v>0.132</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1405,16 +1405,16 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>-2.082706766917293</v>
+        <v>-1.46969696969697</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03814510320516175</v>
+        <v>0.1428124211568643</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9809274483974192</v>
+        <v>0.9285937894215679</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01907255160258087</v>
+        <v>0.07140621057843213</v>
       </c>
     </row>
     <row r="13">
@@ -1424,94 +1424,94 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.059</v>
+        <v>0.062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03</v>
+        <v>0.021</v>
       </c>
       <c r="E13" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="H13" t="n">
-        <v>0.017</v>
+        <v>0.036</v>
       </c>
       <c r="I13" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005</v>
+        <v>0.019</v>
       </c>
       <c r="K13" t="n">
         <v>0.013</v>
       </c>
       <c r="L13" t="n">
-        <v>1.594594594594595</v>
+        <v>1.58974358974359</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1118809973223473</v>
+        <v>0.1130671686065442</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05594049866117366</v>
+        <v>0.0565335843032721</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9440595013388263</v>
+        <v>0.9434664156967278</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3640493120953507</v>
+        <v>0.5490113255355888</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1820246560476754</v>
+        <v>0.2745056627677944</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8179753439523246</v>
+        <v>0.7254943372322056</v>
       </c>
       <c r="T13" t="n">
-        <v>1.2</v>
+        <v>1.259259259259259</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2311087166171215</v>
+        <v>0.2090282885441576</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1155543583085607</v>
+        <v>0.1045141442720788</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8844456416914392</v>
+        <v>0.8954858557279213</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7727272727272728</v>
+        <v>1.565217391304348</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4403066889116116</v>
+        <v>0.1187075498068076</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2201533444558058</v>
+        <v>0.05935377490340379</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.7798466555441942</v>
+        <v>0.9406462250965962</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3846153846153846</v>
+        <v>1.461538461538462</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.7008014055934669</v>
+        <v>0.145034881499382</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3504007027967335</v>
+        <v>0.07251744074969102</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.6495992972032665</v>
+        <v>0.927482559250309</v>
       </c>
     </row>
     <row r="14">
@@ -1527,7 +1527,7 @@
         <v>0.001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001</v>
+        <v>0.0004</v>
       </c>
       <c r="E14" t="n">
         <v>0.001</v>
@@ -1554,61 +1554,61 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3181356414721688</v>
+        <v>0.3182091907828259</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1590678207360844</v>
+        <v>0.1591045953914129</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8409321792639156</v>
+        <v>0.840895404608587</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3181356414721688</v>
+        <v>0.6894739638194372</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1590678207360844</v>
+        <v>0.3447369819097186</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8409321792639156</v>
+        <v>0.6552630180902814</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3181356414721688</v>
+        <v>0.3182091907828259</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1590678207360844</v>
+        <v>0.1591045953914129</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8409321792639156</v>
+        <v>0.840895404608587</v>
       </c>
       <c r="X14" t="n">
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3181356414721688</v>
+        <v>0.3182091907828259</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1590678207360844</v>
+        <v>0.1591045953914129</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8409321792639156</v>
+        <v>0.840895404608587</v>
       </c>
       <c r="AB14" t="n">
         <v>3.333333333333333</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0009683755351359962</v>
+        <v>0.0009786038834425474</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0004841877675679981</v>
+        <v>0.0004893019417212737</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.999515812232432</v>
+        <v>0.9995106980582787</v>
       </c>
     </row>
     <row r="15">
@@ -1618,94 +1618,94 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.058</v>
+        <v>0.152</v>
       </c>
       <c r="C15" t="n">
-        <v>0.128</v>
+        <v>0.137</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.075</v>
+        <v>-0.037</v>
       </c>
       <c r="E15" t="n">
-        <v>0.111</v>
+        <v>0.073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.043</v>
+        <v>0.017</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>0.063</v>
       </c>
       <c r="H15" t="n">
-        <v>0.096</v>
+        <v>-0.039</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.038</v>
       </c>
       <c r="J15" t="n">
-        <v>0.044</v>
+        <v>0.078</v>
       </c>
       <c r="K15" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.453125</v>
+        <v>1.10948905109489</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6507941069893404</v>
+        <v>0.2682101321644979</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6746029465053298</v>
+        <v>0.134105066082249</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3253970534946702</v>
+        <v>0.8658949339177511</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.6756756756756757</v>
+        <v>-0.5068493150684932</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4997795030970088</v>
+        <v>0.6126757629367421</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7501102484514957</v>
+        <v>0.693662118531629</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2498897515485044</v>
+        <v>0.306337881468371</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.2698412698412699</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6675117199473778</v>
+        <v>0.787489259284055</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3337558599736889</v>
+        <v>0.3937446296420275</v>
       </c>
       <c r="W15" t="n">
-        <v>0.666244140026311</v>
+        <v>0.6062553703579725</v>
       </c>
       <c r="X15" t="n">
-        <v>1.352112676056338</v>
+        <v>-1.026315789473684</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1773819985903825</v>
+        <v>0.3056647531329943</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.08869099929519127</v>
+        <v>0.8471676234335028</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9113090007048088</v>
+        <v>0.1528323765664971</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.073170731707317</v>
+        <v>2.108108108108108</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2840775753458608</v>
+        <v>0.03594663106948377</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1420387876729304</v>
+        <v>0.01797331553474189</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.8579612123270697</v>
+        <v>0.9820266844652581</v>
       </c>
     </row>
     <row r="16">
@@ -1715,94 +1715,94 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.535</v>
+        <v>-1.392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.695</v>
+        <v>0.707</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.181</v>
+        <v>-0.944</v>
       </c>
       <c r="E16" t="n">
-        <v>0.594</v>
+        <v>0.62</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.301</v>
+        <v>-1.197</v>
       </c>
       <c r="G16" t="n">
-        <v>0.517</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.009</v>
+        <v>-0.839</v>
       </c>
       <c r="I16" t="n">
-        <v>0.439</v>
+        <v>0.453</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.301</v>
+        <v>-0.314</v>
       </c>
       <c r="K16" t="n">
-        <v>0.211</v>
+        <v>0.24</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.20863309352518</v>
+        <v>-1.968882602545969</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02797412577919798</v>
+        <v>0.04999299564403119</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9860129371104009</v>
+        <v>0.9750035021779844</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01398706288959899</v>
+        <v>0.02499649782201559</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.988215488215488</v>
+        <v>-1.52258064516129</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.047718145875021</v>
+        <v>0.1290383183254299</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9761409270624896</v>
+        <v>0.935480840837285</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0238590729375105</v>
+        <v>0.06451915916271497</v>
       </c>
       <c r="T16" t="n">
-        <v>-2.516441005802708</v>
+        <v>-2.394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01238885459689</v>
+        <v>0.01735094910361067</v>
       </c>
       <c r="V16" t="n">
-        <v>0.993805572701555</v>
+        <v>0.9913245254481946</v>
       </c>
       <c r="W16" t="n">
-        <v>0.006194427298444998</v>
+        <v>0.008675474551805337</v>
       </c>
       <c r="X16" t="n">
-        <v>-2.298405466970387</v>
+        <v>-1.852097130242826</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02224273559346986</v>
+        <v>0.06510740729129545</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9888786322032651</v>
+        <v>0.9674462963543523</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01112136779673493</v>
+        <v>0.03255370364564773</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.42654028436019</v>
+        <v>-1.308333333333333</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.154777117450447</v>
+        <v>0.1918770652825321</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.9226114412747766</v>
+        <v>0.9040614673587339</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.07738855872522349</v>
+        <v>0.09593853264126603</v>
       </c>
     </row>
     <row r="17">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03</v>
+        <v>0.054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="D17" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
       <c r="E17" t="n">
         <v>0.038</v>
@@ -1827,79 +1827,79 @@
         <v>0.077</v>
       </c>
       <c r="G17" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="I17" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="K17" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6818181818181819</v>
+        <v>1.125</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4958925171321705</v>
+        <v>0.261591828176439</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2479462585660853</v>
+        <v>0.1307959140882195</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7520537414339148</v>
+        <v>0.8692040859117804</v>
       </c>
       <c r="P17" t="n">
-        <v>1.473684210526316</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1416401592720057</v>
+        <v>0.1564596337329179</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07082007963600284</v>
+        <v>0.07822981686645895</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9291799203639972</v>
+        <v>0.921770183133541</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.40625</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0285874666427204</v>
+        <v>0.01679197549160927</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0142937333213602</v>
+        <v>0.008395987745804637</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9857062666786398</v>
+        <v>0.9916040122541954</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.7352941176470588</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8129447859503014</v>
+        <v>0.4628009713589285</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.4064723929751507</v>
+        <v>0.2314004856794643</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5935276070248493</v>
+        <v>0.7685995143205357</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05263157894736843</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9580613205875015</v>
+        <v>0.5681862926879144</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4790306602937507</v>
+        <v>0.2840931463439572</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.5209693397062493</v>
+        <v>0.7159068536560428</v>
       </c>
     </row>
     <row r="18">
@@ -1909,94 +1909,94 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="D18" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="E18" t="n">
         <v>0.04</v>
       </c>
       <c r="F18" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="G18" t="n">
         <v>0.033</v>
       </c>
       <c r="H18" t="n">
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="I18" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="J18" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="K18" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7209302325581396</v>
+        <v>0.8780487804878048</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4715272545340746</v>
+        <v>0.3807008153656171</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2357636272670373</v>
+        <v>0.1903504076828085</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7642363727329626</v>
+        <v>0.8096495923171915</v>
       </c>
       <c r="P18" t="n">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3062086716749747</v>
+        <v>0.2946605054118724</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1531043358374873</v>
+        <v>0.1473302527059362</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8468956641625127</v>
+        <v>0.8526697472940639</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6068355731907764</v>
+        <v>0.5858929292814468</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3034177865953882</v>
+        <v>0.2929464646407234</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6965822134046118</v>
+        <v>0.7070535353592766</v>
       </c>
       <c r="X18" t="n">
-        <v>1.333333333333333</v>
+        <v>1.56</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1834581234150106</v>
+        <v>0.1199355599487427</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.09172906170750529</v>
+        <v>0.05996777997437137</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9082709382924947</v>
+        <v>0.9400322200256287</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.285714285714286</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.199557999436827</v>
+        <v>0.1436348182573114</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.09977899971841349</v>
+        <v>0.07181740912865568</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9002210002815866</v>
+        <v>0.9281825908713442</v>
       </c>
     </row>
     <row r="19">
@@ -2006,94 +2006,94 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.147</v>
+        <v>-0.148</v>
       </c>
       <c r="C19" t="n">
-        <v>0.383</v>
+        <v>0.352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.016</v>
+        <v>-0.325</v>
       </c>
       <c r="E19" t="n">
-        <v>0.331</v>
+        <v>0.293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.181</v>
+        <v>-0.156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.255</v>
+        <v>0.225</v>
       </c>
       <c r="H19" t="n">
-        <v>0.122</v>
+        <v>-0.163</v>
       </c>
       <c r="I19" t="n">
-        <v>0.195</v>
+        <v>0.188</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.057</v>
       </c>
       <c r="K19" t="n">
-        <v>0.135</v>
+        <v>0.114</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3838120104438642</v>
+        <v>-0.4204545454545455</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7013961505164512</v>
+        <v>0.6744891047323657</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3506980752582256</v>
+        <v>0.6627554476338171</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6493019247417744</v>
+        <v>0.3372445523661828</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04833836858006042</v>
+        <v>-1.109215017064846</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9614795090397701</v>
+        <v>0.2683280893386437</v>
       </c>
       <c r="R19" t="n">
-        <v>0.480739754519885</v>
+        <v>0.8658359553306781</v>
       </c>
       <c r="S19" t="n">
-        <v>0.519260245480115</v>
+        <v>0.1341640446693218</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7098039215686274</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="U19" t="n">
-        <v>0.4783902307898704</v>
+        <v>0.488698594716105</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2391951153949352</v>
+        <v>0.7556507026419474</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7608048846050648</v>
+        <v>0.2443492973580525</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6256410256410256</v>
+        <v>-0.8670212765957447</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5320374361373241</v>
+        <v>0.3867030778746143</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2660187180686621</v>
+        <v>0.8066484610626928</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.7339812819313379</v>
+        <v>0.1933515389373072</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.6444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.519791469362206</v>
+        <v>0.6174838393680466</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.259895734681103</v>
+        <v>0.3087419196840233</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.7401042653188969</v>
+        <v>0.6912580803159767</v>
       </c>
     </row>
     <row r="20">
@@ -2103,94 +2103,94 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.999</v>
+        <v>1.669</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.966</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.697</v>
+        <v>0.659</v>
       </c>
       <c r="H20" t="n">
-        <v>0.67</v>
+        <v>0.278</v>
       </c>
       <c r="I20" t="n">
-        <v>0.577</v>
+        <v>0.549</v>
       </c>
       <c r="J20" t="n">
-        <v>0.505</v>
+        <v>0.646</v>
       </c>
       <c r="K20" t="n">
-        <v>0.409</v>
+        <v>0.312</v>
       </c>
       <c r="L20" t="n">
-        <v>2.135683760683761</v>
+        <v>1.868980963045913</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03353412634704542</v>
+        <v>0.06271210246241361</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01676706317352271</v>
+        <v>0.03135605123120681</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9832329368264773</v>
+        <v>0.9686439487687932</v>
       </c>
       <c r="P20" t="n">
-        <v>1.238461538461538</v>
+        <v>0.6385696040868455</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2165362849465517</v>
+        <v>0.5236462535510478</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1082681424732759</v>
+        <v>0.2618231267755239</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8917318575267241</v>
+        <v>0.7381768732244762</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9885222381635581</v>
+        <v>0.3581183611532625</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3237125636463327</v>
+        <v>0.7205355962788815</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1618562818231664</v>
+        <v>0.3602677981394408</v>
       </c>
       <c r="W20" t="n">
-        <v>0.8381437181768336</v>
+        <v>0.6397322018605593</v>
       </c>
       <c r="X20" t="n">
-        <v>1.161178509532063</v>
+        <v>0.5063752276867031</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2465144313052122</v>
+        <v>0.6130080260897892</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1232572156526061</v>
+        <v>0.3065040130448946</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.8767427843473939</v>
+        <v>0.6934959869551054</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.234718826405868</v>
+        <v>2.070512820512821</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2179244379904216</v>
+        <v>0.03935834446121035</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.1089622189952108</v>
+        <v>0.01967917223060518</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.8910377810047893</v>
+        <v>0.9803208277693949</v>
       </c>
     </row>
     <row r="21">
@@ -2200,94 +2200,94 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.016</v>
+        <v>2.006</v>
       </c>
       <c r="C21" t="n">
-        <v>1.069</v>
+        <v>0.975</v>
       </c>
       <c r="D21" t="n">
-        <v>1.084</v>
+        <v>1.285</v>
       </c>
       <c r="E21" t="n">
-        <v>0.926</v>
+        <v>0.922</v>
       </c>
       <c r="F21" t="n">
-        <v>1.071</v>
+        <v>1.298</v>
       </c>
       <c r="G21" t="n">
-        <v>0.783</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.997</v>
+        <v>1.181</v>
       </c>
       <c r="I21" t="n">
-        <v>0.595</v>
+        <v>0.507</v>
       </c>
       <c r="J21" t="n">
-        <v>0.663</v>
+        <v>0.728</v>
       </c>
       <c r="K21" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="L21" t="n">
-        <v>1.885874649204864</v>
+        <v>2.057435897435897</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06030088213232604</v>
+        <v>0.04060815215053103</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03015044106616302</v>
+        <v>0.02030407607526551</v>
       </c>
       <c r="O21" t="n">
-        <v>0.969849558933837</v>
+        <v>0.9796959239247345</v>
       </c>
       <c r="P21" t="n">
-        <v>1.170626349892009</v>
+        <v>1.393709327548807</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2427002114700029</v>
+        <v>0.1645557236128717</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1213501057350015</v>
+        <v>0.08227786180643586</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8786498942649985</v>
+        <v>0.9177221381935641</v>
       </c>
       <c r="T21" t="n">
-        <v>1.367816091954023</v>
+        <v>1.88388969521045</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1724178039218815</v>
+        <v>0.06065835780492845</v>
       </c>
       <c r="V21" t="n">
-        <v>0.08620890196094075</v>
+        <v>0.03032917890246422</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9137910980390592</v>
+        <v>0.9696708210975358</v>
       </c>
       <c r="X21" t="n">
-        <v>1.67563025210084</v>
+        <v>2.329388560157791</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.09487740364968603</v>
+        <v>0.02057907588017968</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04743870182484301</v>
+        <v>0.01028953794008984</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.952561298175157</v>
+        <v>0.9897104620599102</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.921739130434783</v>
+        <v>2.091954022988506</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05560835324152805</v>
+        <v>0.0373802083737888</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02780417662076403</v>
+        <v>0.0186901041868944</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.9721958233792359</v>
+        <v>0.9813098958131056</v>
       </c>
     </row>
   </sheetData>
